--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatI.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatI.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\XCDHR\git\XCDHR_Payroll\Salesforce_Core_Framework\src\main\java\com\test\xcdhr\Salesforce_Core_Framework1\salesforce_XLS_Files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="384" yWindow="24" windowWidth="14340" windowHeight="4512" activeTab="2"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -17,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="63">
   <si>
     <t>TC</t>
   </si>
@@ -203,12 +208,15 @@
   </si>
   <si>
     <t>Weekly_Payroll</t>
+  </si>
+  <si>
+    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -285,6 +293,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -332,7 +343,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -365,9 +376,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -400,6 +428,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -575,22 +620,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="33.5546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -604,7 +649,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -618,7 +663,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>40</v>
       </c>
@@ -632,7 +677,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>38</v>
       </c>
@@ -646,7 +691,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>15</v>
       </c>
@@ -660,7 +705,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
@@ -671,7 +716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="75" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>16</v>
       </c>
@@ -689,23 +734,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="39.21875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="14.77734375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="14.7109375" customWidth="1" collapsed="1"/>
     <col min="5" max="5" width="13" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="7.21875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="7.28515625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -728,7 +773,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>22</v>
       </c>
@@ -745,7 +790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>23</v>
       </c>
@@ -762,7 +807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
         <v>24</v>
       </c>
@@ -780,7 +825,7 @@
       </c>
       <c r="H4" s="2"/>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
         <v>25</v>
       </c>
@@ -798,7 +843,7 @@
       </c>
       <c r="H5" s="2"/>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
         <v>26</v>
       </c>
@@ -816,7 +861,7 @@
       </c>
       <c r="H6" s="2"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
         <v>27</v>
       </c>
@@ -834,7 +879,7 @@
       </c>
       <c r="H7" s="2"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
         <v>28</v>
       </c>
@@ -852,7 +897,7 @@
       </c>
       <c r="H8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
         <v>29</v>
       </c>
@@ -870,7 +915,7 @@
       </c>
       <c r="H9" s="2"/>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>30</v>
       </c>
@@ -888,7 +933,7 @@
       </c>
       <c r="H10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
         <v>31</v>
       </c>
@@ -906,7 +951,7 @@
       </c>
       <c r="H11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
         <v>32</v>
       </c>
@@ -924,7 +969,7 @@
       </c>
       <c r="H12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>33</v>
       </c>
@@ -942,7 +987,7 @@
       </c>
       <c r="H13" s="2"/>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
         <v>34</v>
       </c>
@@ -960,7 +1005,7 @@
       </c>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
         <v>35</v>
       </c>
@@ -978,7 +1023,7 @@
       </c>
       <c r="H15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
         <v>36</v>
       </c>
@@ -996,7 +1041,7 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
         <v>37</v>
       </c>
@@ -1020,26 +1065,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="45" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="37" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="52.21875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="52.28515625" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="68" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="12.77734375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.6640625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="12.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" s="7" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -1080,7 +1125,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13" s="9" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" s="9" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -1115,7 +1160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -1150,7 +1195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>51</v>
       </c>
@@ -1185,7 +1230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -1220,7 +1265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1255,7 +1300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
@@ -1290,7 +1335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
@@ -1325,7 +1370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>51</v>
       </c>
@@ -1360,7 +1405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
@@ -1395,7 +1440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -1430,7 +1475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1465,7 +1510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
@@ -1500,7 +1545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -1535,7 +1580,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
@@ -1570,7 +1615,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
@@ -1605,7 +1650,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -1646,28 +1691,28 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.44140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.6640625" customWidth="1" collapsed="1"/>
-    <col min="3" max="4" width="11.77734375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.88671875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.21875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="43.44140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="54.5546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="13.88671875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="45.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="4" width="11.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="43.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="54.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1" collapsed="1"/>
     <col min="10" max="10" width="11" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21.44140625" customWidth="1"/>
+    <col min="11" max="11" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" s="7" customFormat="1" ht="26.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" s="7" customFormat="1" ht="26.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>42</v>
       </c>
@@ -1711,7 +1756,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="9" customFormat="1" ht="28.8" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" s="9" customFormat="1" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>51</v>
       </c>
@@ -1734,7 +1779,7 @@
         <v>53</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>54</v>
+        <v>62</v>
       </c>
       <c r="I2" s="8" t="s">
         <v>58</v>

--- a/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatI.xlsx
+++ b/Salesforce_Core_Framework/src/main/java/com/test/xcdhr/Salesforce_Core_Framework1/salesforce_XLS_Files/Payroll Suite WeeklyCatI.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="390" yWindow="30" windowWidth="14340" windowHeight="4515" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="first" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="62">
   <si>
     <t>TC</t>
   </si>
@@ -186,9 +186,6 @@
     <t>DO NOT TOUCH - PAYROLL AUTOMATION CHECK</t>
   </si>
   <si>
-    <t>F:\\Automation NI Reports\\HMRCTestData\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
-  </si>
-  <si>
     <t>2</t>
   </si>
   <si>
@@ -210,13 +207,14 @@
     <t>Weekly_Payroll</t>
   </si>
   <si>
-    <t>F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports\\AUTOMATION Test Result FOR NI Calculations.xlsx</t>
+    <t xml:space="preserve">F:\\Automation_TestResults\\Payroll_Tax_NI_Directors_TestReports 201516\\AUTOMATION Test Result FOR NI Calculations.xlsx
+</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -620,7 +618,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -734,7 +732,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1065,11 +1063,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C17"/>
+    <sheetView tabSelected="1" topLeftCell="E13" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1133,7 +1131,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>21</v>
@@ -1142,25 +1140,25 @@
         <v>52</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I2" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K2" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>51</v>
       </c>
@@ -1168,7 +1166,7 @@
         <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>21</v>
@@ -1177,25 +1175,25 @@
         <v>52</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G3" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H3" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I3" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I3" s="8" t="s">
+      <c r="J3" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J3" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K3" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>51</v>
       </c>
@@ -1203,7 +1201,7 @@
         <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D4" s="8" t="s">
         <v>21</v>
@@ -1212,25 +1210,25 @@
         <v>52</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G4" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H4" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I4" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="J4" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J4" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K4" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>51</v>
       </c>
@@ -1238,7 +1236,7 @@
         <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D5" s="8" t="s">
         <v>21</v>
@@ -1247,25 +1245,25 @@
         <v>52</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H5" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="J5" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J5" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K5" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>51</v>
       </c>
@@ -1273,7 +1271,7 @@
         <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D6" s="8" t="s">
         <v>21</v>
@@ -1282,25 +1280,25 @@
         <v>52</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H6" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I6" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I6" s="8" t="s">
+      <c r="J6" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J6" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K6" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>51</v>
       </c>
@@ -1308,7 +1306,7 @@
         <v>27</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D7" s="8" t="s">
         <v>21</v>
@@ -1317,25 +1315,25 @@
         <v>52</v>
       </c>
       <c r="F7" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H7" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I7" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I7" s="8" t="s">
+      <c r="J7" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J7" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K7" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>51</v>
       </c>
@@ -1343,7 +1341,7 @@
         <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D8" s="8" t="s">
         <v>21</v>
@@ -1352,25 +1350,25 @@
         <v>52</v>
       </c>
       <c r="F8" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G8" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H8" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I8" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I8" s="8" t="s">
+      <c r="J8" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K8" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>51</v>
       </c>
@@ -1378,7 +1376,7 @@
         <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D9" s="8" t="s">
         <v>21</v>
@@ -1387,25 +1385,25 @@
         <v>52</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G9" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H9" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I9" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I9" s="8" t="s">
+      <c r="J9" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K9" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>51</v>
       </c>
@@ -1413,7 +1411,7 @@
         <v>30</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D10" s="8" t="s">
         <v>21</v>
@@ -1422,25 +1420,25 @@
         <v>52</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H10" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I10" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I10" s="8" t="s">
+      <c r="J10" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K10" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>51</v>
       </c>
@@ -1448,7 +1446,7 @@
         <v>31</v>
       </c>
       <c r="C11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D11" s="8" t="s">
         <v>21</v>
@@ -1457,25 +1455,25 @@
         <v>52</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I11" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I11" s="8" t="s">
+      <c r="J11" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J11" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K11" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>51</v>
       </c>
@@ -1483,7 +1481,7 @@
         <v>32</v>
       </c>
       <c r="C12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="8" t="s">
         <v>21</v>
@@ -1492,25 +1490,25 @@
         <v>52</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H12" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I12" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I12" s="8" t="s">
+      <c r="J12" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J12" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K12" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>51</v>
       </c>
@@ -1518,7 +1516,7 @@
         <v>33</v>
       </c>
       <c r="C13" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D13" s="8" t="s">
         <v>21</v>
@@ -1527,25 +1525,25 @@
         <v>52</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H13" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I13" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I13" s="8" t="s">
+      <c r="J13" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J13" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K13" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>51</v>
       </c>
@@ -1553,7 +1551,7 @@
         <v>34</v>
       </c>
       <c r="C14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D14" s="8" t="s">
         <v>21</v>
@@ -1562,25 +1560,25 @@
         <v>52</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H14" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I14" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I14" s="8" t="s">
+      <c r="J14" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J14" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K14" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>51</v>
       </c>
@@ -1588,7 +1586,7 @@
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D15" s="8" t="s">
         <v>21</v>
@@ -1597,25 +1595,25 @@
         <v>52</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H15" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I15" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I15" s="8" t="s">
+      <c r="J15" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J15" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K15" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:13" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" s="7" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>51</v>
       </c>
@@ -1623,7 +1621,7 @@
         <v>36</v>
       </c>
       <c r="C16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D16" s="8" t="s">
         <v>21</v>
@@ -1632,25 +1630,25 @@
         <v>52</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H16" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I16" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I16" s="8" t="s">
+      <c r="J16" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>56</v>
-      </c>
       <c r="K16" s="9" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>51</v>
       </c>
@@ -1658,7 +1656,7 @@
         <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D17" s="8" t="s">
         <v>21</v>
@@ -1667,19 +1665,19 @@
         <v>52</v>
       </c>
       <c r="F17" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H17" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="I17" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="I17" s="8" t="s">
+      <c r="J17" s="8" t="s">
         <v>55</v>
-      </c>
-      <c r="J17" s="8" t="s">
-        <v>56</v>
       </c>
       <c r="K17" s="9" t="s">
         <v>6</v>
@@ -1691,10 +1689,10 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
@@ -1744,7 +1742,7 @@
         <v>50</v>
       </c>
       <c r="K1" s="10" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="L1" s="6" t="s">
         <v>2</v>
@@ -1764,7 +1762,7 @@
         <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>21</v>
@@ -1773,22 +1771,22 @@
         <v>52</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>53</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="L2" s="9" t="s">
         <v>6</v>
